--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180977.42</v>
+        <v>206364.27</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6702.87</v>
+        <v>6448.88</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12150.24</v>
+        <v>11374.44</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4053.39</v>
+        <v>4057.37</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18516.26</v>
+        <v>18480.84</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041.17</v>
+        <v>4882.03</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60796.81</v>
+        <v>60863.34</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18375.33</v>
+        <v>18378.88</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5406.87</v>
+        <v>5385.65</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1786.2</v>
+        <v>1777.04</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4971.37</v>
+        <v>4776.96</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6034.07</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3502.36</v>
+        <v>3502.67</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14971.92</v>
+        <v>15019.33</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2595.25</v>
+        <v>2591.53</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>265.16</v>
+        <v>287.73</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3268.45</v>
+        <v>3275.72</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2773.66</v>
+        <v>2780.71</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3418.59</v>
+        <v>3421.03</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1046.26</v>
+        <v>1133.24</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2512.68</v>
+        <v>2515.65</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>523.63</v>
+        <v>519.73</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3142.57</v>
+        <v>4137.96</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1034.11</v>
+        <v>1035.98</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407.99</v>
+        <v>407.9</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.86</v>
+        <v>46.73</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.04</v>
+        <v>255.03</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,57 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1079.18</v>
+        <v>1079.62</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>552.84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>841.28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>26625.36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>269.65</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>255.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,208 +436,271 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>206364.27</v>
+        <v>4157.75</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5057.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6448.88</v>
+        <v>11405.13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11386.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11374.44</v>
+        <v>1032.84</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1036.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4057.37</v>
+        <v>2518.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2685.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18480.84</v>
+        <v>4060.24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4044.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4882.03</v>
+        <v>14757.87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14787.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>838.83</v>
+      </c>
+      <c r="C8" t="n">
+        <v>839.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60863.34</v>
+        <v>26650.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26833.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18378.88</v>
+        <v>408.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>409.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5385.65</v>
+        <v>4690.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2807.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1777.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4776.96</v>
+        <v>60815.49</v>
+      </c>
+      <c r="C13" t="n">
+        <v>59038.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5833</v>
+        <v>18385.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18391.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3502.67</v>
+        <v>277.17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>272.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15019.33</v>
+        <v>5435.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5405.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2591.53</v>
+        <v>1817.16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1782.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>287.73</v>
+        <v>53.05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>49.69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3275.72</v>
+        <v>270.37</v>
+      </c>
+      <c r="C19" t="n">
+        <v>270.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2780.71</v>
+        <v>4623.73</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3421.03</v>
+        <v>5835.18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5595.17</v>
       </c>
     </row>
     <row r="22">
@@ -647,137 +710,179 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1133.24</v>
+        <v>1202.16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1315.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2515.65</v>
+        <v>254.96</v>
+      </c>
+      <c r="C23" t="n">
+        <v>374.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>519.73</v>
+        <v>254.96</v>
+      </c>
+      <c r="C24" t="n">
+        <v>374.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4137.96</v>
+        <v>548.6900000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>545.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1035.98</v>
+        <v>1076.94</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1078.23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>407.9</v>
+        <v>3266.21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3267.45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.73</v>
+        <v>2794.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2770.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.03</v>
+        <v>516.52</v>
+      </c>
+      <c r="C29" t="n">
+        <v>516.4400000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1079.62</v>
+        <v>3492.93</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3492.43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>552.84</v>
+        <v>2600.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2590.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>841.28</v>
+        <v>14982.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15003.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26625.36</v>
+        <v>3423.36</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3422.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>269.65</v>
+        <v>6326.49</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6447.39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255.03</v>
+        <v>202447.66</v>
+      </c>
+      <c r="C35" t="n">
+        <v>199869.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,441 +443,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4157.75</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5057.13</v>
+        <v>199494.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11405.13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11386.1</v>
+        <v>6435.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1032.84</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1036.47</v>
+        <v>5057.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2518.95</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2685.23</v>
+        <v>11386.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4060.24</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4044.99</v>
+        <v>1036.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14757.87</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14787.53</v>
+        <v>2685.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>838.83</v>
-      </c>
-      <c r="C8" t="n">
-        <v>839.96</v>
+        <v>4044.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26650.48</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26833.05</v>
+        <v>14787.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.79</v>
-      </c>
-      <c r="C10" t="n">
-        <v>409.57</v>
+        <v>839.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4690.72</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2807.4</v>
+        <v>26833.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>409.57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60815.49</v>
-      </c>
-      <c r="C13" t="n">
-        <v>59038.51</v>
+        <v>2807.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18385.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18391.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>277.17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>272.72</v>
+        <v>59038.51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5435.25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5405.32</v>
+        <v>18391.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1817.16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1782.22</v>
+        <v>272.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>53.05</v>
-      </c>
-      <c r="C18" t="n">
-        <v>49.69</v>
+        <v>5405.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.37</v>
-      </c>
-      <c r="C19" t="n">
-        <v>270.38</v>
+        <v>1782.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4623.73</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4424</v>
+        <v>49.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5835.18</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5595.17</v>
+        <v>270.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1202.16</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1315.87</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>254.96</v>
-      </c>
-      <c r="C23" t="n">
-        <v>374.56</v>
+        <v>5595.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>254.96</v>
-      </c>
-      <c r="C24" t="n">
-        <v>374.56</v>
+        <v>1315.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>548.6900000000001</v>
-      </c>
-      <c r="C25" t="n">
-        <v>545.15</v>
+        <v>374.56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1076.94</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1078.23</v>
+        <v>545.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3266.21</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3267.45</v>
+        <v>1078.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2794.28</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2770.12</v>
+        <v>3267.45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>516.52</v>
-      </c>
-      <c r="C29" t="n">
-        <v>516.4400000000001</v>
+        <v>2770.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3492.93</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3492.43</v>
+        <v>516.4400000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2600.1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2590.2</v>
+        <v>3492.43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14982.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>15003.99</v>
+        <v>2590.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3423.36</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3422.86</v>
+        <v>15003.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6326.49</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6447.39</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>202447.66</v>
-      </c>
-      <c r="C35" t="n">
-        <v>199869.18</v>
+        <v>3422.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,335 +439,429 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199494.62</v>
+        <v>5057.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5034.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6435.31</v>
+        <v>11386.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11336.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5057.13</v>
+        <v>1036.47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1033.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11386.1</v>
+        <v>2685.23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2672.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1036.47</v>
+        <v>4044.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4057.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2685.23</v>
+        <v>14787.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14760.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4044.99</v>
+        <v>839.96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>838.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14787.53</v>
+        <v>26833.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26726.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839.96</v>
+        <v>409.57</v>
+      </c>
+      <c r="C10" t="n">
+        <v>407.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26833.05</v>
+        <v>2807.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>850.3200000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409.57</v>
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2807.4</v>
-      </c>
+        <v>59038.51</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
+        <v>18391.88</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59038.51</v>
-      </c>
+        <v>272.72</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18391.88</v>
-      </c>
+        <v>5405.32</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>272.72</v>
+        <v>1782.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1797.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5405.32</v>
+        <v>49.69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>48.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1782.22</v>
+        <v>270.38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>269.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.69</v>
+        <v>4424</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4422.83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>270.38</v>
+        <v>5595.17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5597.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4424</v>
+        <v>1315.87</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1385.43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5595.17</v>
+        <v>374.56</v>
+      </c>
+      <c r="C23" t="n">
+        <v>374.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1315.87</v>
+        <v>545.15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>544.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>374.56</v>
+        <v>1078.23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1077.63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>545.15</v>
-      </c>
+        <v>3267.45</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1078.23</v>
+        <v>2770.12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2765.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3267.45</v>
+        <v>516.4400000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>518.48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2770.12</v>
+        <v>3492.43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3514.85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>516.4400000000001</v>
+        <v>2590.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2596.22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3492.43</v>
+        <v>15003.99</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15015.07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2590.2</v>
+        <v>3422.86</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2302.79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15003.99</v>
+        <v>6435.31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4228.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3422.86</v>
+        <v>199494.62</v>
+      </c>
+      <c r="C34" t="n">
+        <v>109947.45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>5034.36</v>
       </c>
+      <c r="D2" t="n">
+        <v>5058.45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>11336.13</v>
       </c>
+      <c r="D3" t="n">
+        <v>11406.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>1033.62</v>
       </c>
+      <c r="D4" t="n">
+        <v>1042.34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>2672.24</v>
       </c>
+      <c r="D5" t="n">
+        <v>2673.96</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>4057.08</v>
       </c>
+      <c r="D6" t="n">
+        <v>4057.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>14760.18</v>
       </c>
+      <c r="D7" t="n">
+        <v>14794.89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>838.42</v>
       </c>
+      <c r="D8" t="n">
+        <v>840.22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>26726.53</v>
       </c>
+      <c r="D9" t="n">
+        <v>26761.37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>407.39</v>
       </c>
+      <c r="D10" t="n">
+        <v>407.12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>850.3200000000001</v>
       </c>
+      <c r="D11" t="n">
+        <v>898.6900000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -598,6 +636,9 @@
         <v>59038.51</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>47512.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -609,6 +650,9 @@
         <v>18391.88</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>18367.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -620,6 +664,9 @@
         <v>272.72</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>287.23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -631,6 +678,9 @@
         <v>5405.32</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>5568.52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -644,6 +694,9 @@
       <c r="C17" t="n">
         <v>1797.92</v>
       </c>
+      <c r="D17" t="n">
+        <v>1805.75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -657,6 +710,9 @@
       <c r="C18" t="n">
         <v>48.64</v>
       </c>
+      <c r="D18" t="n">
+        <v>53.96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -670,6 +726,9 @@
       <c r="C19" t="n">
         <v>269.61</v>
       </c>
+      <c r="D19" t="n">
+        <v>270.21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -683,6 +742,9 @@
       <c r="C20" t="n">
         <v>4422.83</v>
       </c>
+      <c r="D20" t="n">
+        <v>4247.14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -696,6 +758,9 @@
       <c r="C21" t="n">
         <v>5597.41</v>
       </c>
+      <c r="D21" t="n">
+        <v>4138</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -709,6 +774,9 @@
       <c r="C22" t="n">
         <v>1385.43</v>
       </c>
+      <c r="D22" t="n">
+        <v>1772.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -722,6 +790,9 @@
       <c r="C23" t="n">
         <v>374.78</v>
       </c>
+      <c r="D23" t="n">
+        <v>437.76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -735,6 +806,9 @@
       <c r="C24" t="n">
         <v>544.42</v>
       </c>
+      <c r="D24" t="n">
+        <v>547.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -748,6 +822,9 @@
       <c r="C25" t="n">
         <v>1077.63</v>
       </c>
+      <c r="D25" t="n">
+        <v>793.96</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -759,6 +836,9 @@
         <v>3267.45</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>3285.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -772,6 +852,9 @@
       <c r="C27" t="n">
         <v>2765.1</v>
       </c>
+      <c r="D27" t="n">
+        <v>2788.78</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -785,6 +868,9 @@
       <c r="C28" t="n">
         <v>518.48</v>
       </c>
+      <c r="D28" t="n">
+        <v>522.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -798,6 +884,9 @@
       <c r="C29" t="n">
         <v>3514.85</v>
       </c>
+      <c r="D29" t="n">
+        <v>3502.69</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -811,6 +900,9 @@
       <c r="C30" t="n">
         <v>2596.22</v>
       </c>
+      <c r="D30" t="n">
+        <v>2445.25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -824,6 +916,9 @@
       <c r="C31" t="n">
         <v>15015.07</v>
       </c>
+      <c r="D31" t="n">
+        <v>14987.47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -837,6 +932,9 @@
       <c r="C32" t="n">
         <v>2302.79</v>
       </c>
+      <c r="D32" t="n">
+        <v>2302.96</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -850,6 +948,9 @@
       <c r="C33" t="n">
         <v>4228.75</v>
       </c>
+      <c r="D33" t="n">
+        <v>5921.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -862,6 +963,9 @@
       </c>
       <c r="C34" t="n">
         <v>109947.45</v>
+      </c>
+      <c r="D34" t="n">
+        <v>183577.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>5058.45</v>
       </c>
+      <c r="E2" t="n">
+        <v>5056.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>11406.02</v>
       </c>
+      <c r="E3" t="n">
+        <v>11335.34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>1042.34</v>
       </c>
+      <c r="E4" t="n">
+        <v>1041.22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>2673.96</v>
       </c>
+      <c r="E5" t="n">
+        <v>2681.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>4057.09</v>
       </c>
+      <c r="E6" t="n">
+        <v>4075.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>14794.89</v>
       </c>
+      <c r="E7" t="n">
+        <v>14727.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>840.22</v>
       </c>
+      <c r="E8" t="n">
+        <v>838.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>26761.37</v>
       </c>
+      <c r="E9" t="n">
+        <v>26703.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>407.12</v>
       </c>
+      <c r="E10" t="n">
+        <v>406.78</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>898.6900000000001</v>
       </c>
+      <c r="E11" t="n">
+        <v>878.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -623,6 +658,9 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -639,6 +677,9 @@
       <c r="D13" t="n">
         <v>47512.15</v>
       </c>
+      <c r="E13" t="n">
+        <v>45804.27</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -653,6 +694,9 @@
       <c r="D14" t="n">
         <v>18367.48</v>
       </c>
+      <c r="E14" t="n">
+        <v>18359.76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -667,6 +711,9 @@
       <c r="D15" t="n">
         <v>287.23</v>
       </c>
+      <c r="E15" t="n">
+        <v>303.99</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -681,6 +728,9 @@
       <c r="D16" t="n">
         <v>5568.52</v>
       </c>
+      <c r="E16" t="n">
+        <v>6037.37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -697,6 +747,9 @@
       <c r="D17" t="n">
         <v>1805.75</v>
       </c>
+      <c r="E17" t="n">
+        <v>1773.27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -713,6 +766,9 @@
       <c r="D18" t="n">
         <v>53.96</v>
       </c>
+      <c r="E18" t="n">
+        <v>47.94</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -729,6 +785,9 @@
       <c r="D19" t="n">
         <v>270.21</v>
       </c>
+      <c r="E19" t="n">
+        <v>269.97</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -745,6 +804,9 @@
       <c r="D20" t="n">
         <v>4247.14</v>
       </c>
+      <c r="E20" t="n">
+        <v>4242.11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -761,6 +823,9 @@
       <c r="D21" t="n">
         <v>4138</v>
       </c>
+      <c r="E21" t="n">
+        <v>4120.63</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -777,6 +842,9 @@
       <c r="D22" t="n">
         <v>1772.6</v>
       </c>
+      <c r="E22" t="n">
+        <v>1863.37</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -793,6 +861,9 @@
       <c r="D23" t="n">
         <v>437.76</v>
       </c>
+      <c r="E23" t="n">
+        <v>438.77</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -809,6 +880,9 @@
       <c r="D24" t="n">
         <v>547.5</v>
       </c>
+      <c r="E24" t="n">
+        <v>542.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -824,6 +898,9 @@
       </c>
       <c r="D25" t="n">
         <v>793.96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>794.75</v>
       </c>
     </row>
     <row r="26">
@@ -839,6 +916,9 @@
       <c r="D26" t="n">
         <v>3285.8</v>
       </c>
+      <c r="E26" t="n">
+        <v>3262.04</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -855,6 +935,9 @@
       <c r="D27" t="n">
         <v>2788.78</v>
       </c>
+      <c r="E27" t="n">
+        <v>2763.29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -871,6 +954,9 @@
       <c r="D28" t="n">
         <v>522.2</v>
       </c>
+      <c r="E28" t="n">
+        <v>521.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -887,6 +973,9 @@
       <c r="D29" t="n">
         <v>3502.69</v>
       </c>
+      <c r="E29" t="n">
+        <v>3515.49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -903,6 +992,9 @@
       <c r="D30" t="n">
         <v>2445.25</v>
       </c>
+      <c r="E30" t="n">
+        <v>2396.61</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -919,6 +1011,9 @@
       <c r="D31" t="n">
         <v>14987.47</v>
       </c>
+      <c r="E31" t="n">
+        <v>14967.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -935,6 +1030,9 @@
       <c r="D32" t="n">
         <v>2302.96</v>
       </c>
+      <c r="E32" t="n">
+        <v>2307.89</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -951,6 +1049,9 @@
       <c r="D33" t="n">
         <v>5921.86</v>
       </c>
+      <c r="E33" t="n">
+        <v>5873.48</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -966,6 +1067,9 @@
       </c>
       <c r="D34" t="n">
         <v>183577.56</v>
+      </c>
+      <c r="E34" t="n">
+        <v>182077.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>5056.23</v>
       </c>
+      <c r="F2" t="n">
+        <v>5059.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>11335.34</v>
       </c>
+      <c r="F3" t="n">
+        <v>11412.85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>1041.22</v>
       </c>
+      <c r="F4" t="n">
+        <v>1039.62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>2681.86</v>
       </c>
+      <c r="F5" t="n">
+        <v>2680.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>4075.53</v>
       </c>
+      <c r="F6" t="n">
+        <v>4062.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>14727.35</v>
       </c>
+      <c r="F7" t="n">
+        <v>14763.66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>838.03</v>
       </c>
+      <c r="F8" t="n">
+        <v>838.36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>26703.49</v>
       </c>
+      <c r="F9" t="n">
+        <v>26666.45</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>406.78</v>
       </c>
+      <c r="F10" t="n">
+        <v>406.58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>878.77</v>
       </c>
+      <c r="F11" t="n">
+        <v>852.38</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -661,6 +696,9 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,6 +718,9 @@
       <c r="E13" t="n">
         <v>45804.27</v>
       </c>
+      <c r="F13" t="n">
+        <v>45808.53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -697,6 +738,9 @@
       <c r="E14" t="n">
         <v>18359.76</v>
       </c>
+      <c r="F14" t="n">
+        <v>18361.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -714,6 +758,9 @@
       <c r="E15" t="n">
         <v>303.99</v>
       </c>
+      <c r="F15" t="n">
+        <v>292.34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -731,6 +778,9 @@
       <c r="E16" t="n">
         <v>6037.37</v>
       </c>
+      <c r="F16" t="n">
+        <v>6044.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -750,6 +800,9 @@
       <c r="E17" t="n">
         <v>1773.27</v>
       </c>
+      <c r="F17" t="n">
+        <v>1790.54</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -769,6 +822,9 @@
       <c r="E18" t="n">
         <v>47.94</v>
       </c>
+      <c r="F18" t="n">
+        <v>45.91</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -788,6 +844,9 @@
       <c r="E19" t="n">
         <v>269.97</v>
       </c>
+      <c r="F19" t="n">
+        <v>268.84</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -807,6 +866,9 @@
       <c r="E20" t="n">
         <v>4242.11</v>
       </c>
+      <c r="F20" t="n">
+        <v>4041.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -826,6 +888,9 @@
       <c r="E21" t="n">
         <v>4120.63</v>
       </c>
+      <c r="F21" t="n">
+        <v>4122.99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -845,6 +910,9 @@
       <c r="E22" t="n">
         <v>1863.37</v>
       </c>
+      <c r="F22" t="n">
+        <v>1836.98</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -864,6 +932,9 @@
       <c r="E23" t="n">
         <v>438.77</v>
       </c>
+      <c r="F23" t="n">
+        <v>437.86</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -883,6 +954,9 @@
       <c r="E24" t="n">
         <v>542.5</v>
       </c>
+      <c r="F24" t="n">
+        <v>552.77</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -901,6 +975,9 @@
       </c>
       <c r="E25" t="n">
         <v>794.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>794.0700000000001</v>
       </c>
     </row>
     <row r="26">
@@ -919,6 +996,9 @@
       <c r="E26" t="n">
         <v>3262.04</v>
       </c>
+      <c r="F26" t="n">
+        <v>3286.89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -938,6 +1018,9 @@
       <c r="E27" t="n">
         <v>2763.29</v>
       </c>
+      <c r="F27" t="n">
+        <v>2806.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -957,6 +1040,9 @@
       <c r="E28" t="n">
         <v>521.95</v>
       </c>
+      <c r="F28" t="n">
+        <v>523.1900000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -976,6 +1062,9 @@
       <c r="E29" t="n">
         <v>3515.49</v>
       </c>
+      <c r="F29" t="n">
+        <v>3518.34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -995,6 +1084,9 @@
       <c r="E30" t="n">
         <v>2396.61</v>
       </c>
+      <c r="F30" t="n">
+        <v>2580.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1014,6 +1106,9 @@
       <c r="E31" t="n">
         <v>14967.4</v>
       </c>
+      <c r="F31" t="n">
+        <v>14964.31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1033,6 +1128,9 @@
       <c r="E32" t="n">
         <v>2307.89</v>
       </c>
+      <c r="F32" t="n">
+        <v>2306.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1052,6 +1150,9 @@
       <c r="E33" t="n">
         <v>5873.48</v>
       </c>
+      <c r="F33" t="n">
+        <v>5876.35</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1070,6 +1171,9 @@
       </c>
       <c r="E34" t="n">
         <v>182077.97</v>
+      </c>
+      <c r="F34" t="n">
+        <v>182166.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>5059.6</v>
       </c>
+      <c r="G2" t="n">
+        <v>3545.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>11412.85</v>
       </c>
+      <c r="G3" t="n">
+        <v>11400.62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>1039.62</v>
       </c>
+      <c r="G4" t="n">
+        <v>1031.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>2680.95</v>
       </c>
+      <c r="G5" t="n">
+        <v>2685.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>4062.11</v>
       </c>
+      <c r="G6" t="n">
+        <v>4063.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>14763.66</v>
       </c>
+      <c r="G7" t="n">
+        <v>14730.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>838.36</v>
       </c>
+      <c r="G8" t="n">
+        <v>842.22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>26666.45</v>
       </c>
+      <c r="G9" t="n">
+        <v>26838.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>406.58</v>
       </c>
+      <c r="G10" t="n">
+        <v>406.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>852.38</v>
       </c>
+      <c r="G11" t="n">
+        <v>857.4400000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -699,6 +734,9 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -721,6 +759,9 @@
       <c r="F13" t="n">
         <v>45808.53</v>
       </c>
+      <c r="G13" t="n">
+        <v>41685.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -741,6 +782,9 @@
       <c r="F14" t="n">
         <v>18361.31</v>
       </c>
+      <c r="G14" t="n">
+        <v>18355.98</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -761,6 +805,9 @@
       <c r="F15" t="n">
         <v>292.34</v>
       </c>
+      <c r="G15" t="n">
+        <v>288.29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -781,6 +828,9 @@
       <c r="F16" t="n">
         <v>6044.91</v>
       </c>
+      <c r="G16" t="n">
+        <v>6006.43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -803,6 +853,9 @@
       <c r="F17" t="n">
         <v>1790.54</v>
       </c>
+      <c r="G17" t="n">
+        <v>1813.21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -825,6 +878,9 @@
       <c r="F18" t="n">
         <v>45.91</v>
       </c>
+      <c r="G18" t="n">
+        <v>48.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -847,6 +903,9 @@
       <c r="F19" t="n">
         <v>268.84</v>
       </c>
+      <c r="G19" t="n">
+        <v>270.55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -869,6 +928,9 @@
       <c r="F20" t="n">
         <v>4041.3</v>
       </c>
+      <c r="G20" t="n">
+        <v>3845.83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -891,6 +953,9 @@
       <c r="F21" t="n">
         <v>4122.99</v>
       </c>
+      <c r="G21" t="n">
+        <v>4138.67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -913,6 +978,9 @@
       <c r="F22" t="n">
         <v>1836.98</v>
       </c>
+      <c r="G22" t="n">
+        <v>1833.68</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -935,6 +1003,9 @@
       <c r="F23" t="n">
         <v>437.86</v>
       </c>
+      <c r="G23" t="n">
+        <v>438.43</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -957,6 +1028,9 @@
       <c r="F24" t="n">
         <v>552.77</v>
       </c>
+      <c r="G24" t="n">
+        <v>543.98</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -978,6 +1052,9 @@
       </c>
       <c r="F25" t="n">
         <v>794.0700000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>792.98</v>
       </c>
     </row>
     <row r="26">
@@ -999,6 +1076,9 @@
       <c r="F26" t="n">
         <v>3286.89</v>
       </c>
+      <c r="G26" t="n">
+        <v>3276.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1021,6 +1101,9 @@
       <c r="F27" t="n">
         <v>2806.09</v>
       </c>
+      <c r="G27" t="n">
+        <v>2770.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1043,6 +1126,9 @@
       <c r="F28" t="n">
         <v>523.1900000000001</v>
       </c>
+      <c r="G28" t="n">
+        <v>521.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1065,6 +1151,9 @@
       <c r="F29" t="n">
         <v>3518.34</v>
       </c>
+      <c r="G29" t="n">
+        <v>3504.58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1087,6 +1176,9 @@
       <c r="F30" t="n">
         <v>2580.7</v>
       </c>
+      <c r="G30" t="n">
+        <v>2608.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1109,6 +1201,9 @@
       <c r="F31" t="n">
         <v>14964.31</v>
       </c>
+      <c r="G31" t="n">
+        <v>14995.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1131,6 +1226,9 @@
       <c r="F32" t="n">
         <v>2306.37</v>
       </c>
+      <c r="G32" t="n">
+        <v>2303.38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1153,6 +1251,9 @@
       <c r="F33" t="n">
         <v>5876.35</v>
       </c>
+      <c r="G33" t="n">
+        <v>5691.69</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1174,6 +1275,9 @@
       </c>
       <c r="F34" t="n">
         <v>182166.8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>176442.47</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>3545.58</v>
       </c>
+      <c r="H2" t="n">
+        <v>3556.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>11400.62</v>
       </c>
+      <c r="H3" t="n">
+        <v>11392.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>1031.42</v>
       </c>
+      <c r="H4" t="n">
+        <v>1033.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>2685.95</v>
       </c>
+      <c r="H5" t="n">
+        <v>2684.51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>4063.33</v>
       </c>
+      <c r="H6" t="n">
+        <v>4046.98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>14730.5</v>
       </c>
+      <c r="H7" t="n">
+        <v>14747.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>842.22</v>
       </c>
+      <c r="H8" t="n">
+        <v>841.97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>26838.01</v>
       </c>
+      <c r="H9" t="n">
+        <v>26626.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>406.16</v>
       </c>
+      <c r="H10" t="n">
+        <v>408.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>857.4400000000001</v>
       </c>
+      <c r="H11" t="n">
+        <v>901.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -737,6 +772,9 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -762,6 +800,9 @@
       <c r="G13" t="n">
         <v>41685.14</v>
       </c>
+      <c r="H13" t="n">
+        <v>39913.41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -785,6 +826,9 @@
       <c r="G14" t="n">
         <v>18355.98</v>
       </c>
+      <c r="H14" t="n">
+        <v>18386.46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -808,6 +852,9 @@
       <c r="G15" t="n">
         <v>288.29</v>
       </c>
+      <c r="H15" t="n">
+        <v>278.24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -831,6 +878,9 @@
       <c r="G16" t="n">
         <v>6006.43</v>
       </c>
+      <c r="H16" t="n">
+        <v>6045.84</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -856,6 +906,9 @@
       <c r="G17" t="n">
         <v>1813.21</v>
       </c>
+      <c r="H17" t="n">
+        <v>1802.75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -881,6 +934,9 @@
       <c r="G18" t="n">
         <v>48.1</v>
       </c>
+      <c r="H18" t="n">
+        <v>46.48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -906,6 +962,9 @@
       <c r="G19" t="n">
         <v>270.55</v>
       </c>
+      <c r="H19" t="n">
+        <v>268.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -931,6 +990,9 @@
       <c r="G20" t="n">
         <v>3845.83</v>
       </c>
+      <c r="H20" t="n">
+        <v>3647.35</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -956,6 +1018,9 @@
       <c r="G21" t="n">
         <v>4138.67</v>
       </c>
+      <c r="H21" t="n">
+        <v>4139.09</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -981,6 +1046,9 @@
       <c r="G22" t="n">
         <v>1833.68</v>
       </c>
+      <c r="H22" t="n">
+        <v>2193.13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1006,6 +1074,9 @@
       <c r="G23" t="n">
         <v>438.43</v>
       </c>
+      <c r="H23" t="n">
+        <v>438.54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1031,6 +1102,9 @@
       <c r="G24" t="n">
         <v>543.98</v>
       </c>
+      <c r="H24" t="n">
+        <v>556.91</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1055,6 +1129,9 @@
       </c>
       <c r="G25" t="n">
         <v>792.98</v>
+      </c>
+      <c r="H25" t="n">
+        <v>796.26</v>
       </c>
     </row>
     <row r="26">
@@ -1079,6 +1156,9 @@
       <c r="G26" t="n">
         <v>3276.38</v>
       </c>
+      <c r="H26" t="n">
+        <v>3278.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1104,6 +1184,9 @@
       <c r="G27" t="n">
         <v>2770.27</v>
       </c>
+      <c r="H27" t="n">
+        <v>2774.69</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1129,6 +1212,9 @@
       <c r="G28" t="n">
         <v>521.14</v>
       </c>
+      <c r="H28" t="n">
+        <v>516.28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1154,6 +1240,9 @@
       <c r="G29" t="n">
         <v>3504.58</v>
       </c>
+      <c r="H29" t="n">
+        <v>3499.31</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1179,6 +1268,9 @@
       <c r="G30" t="n">
         <v>2608.8</v>
       </c>
+      <c r="H30" t="n">
+        <v>2630.9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1204,6 +1296,9 @@
       <c r="G31" t="n">
         <v>14995.42</v>
       </c>
+      <c r="H31" t="n">
+        <v>15019.44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1229,6 +1324,9 @@
       <c r="G32" t="n">
         <v>2303.38</v>
       </c>
+      <c r="H32" t="n">
+        <v>2300.74</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1254,6 +1352,9 @@
       <c r="G33" t="n">
         <v>5691.69</v>
       </c>
+      <c r="H33" t="n">
+        <v>5637.77</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1278,6 +1379,9 @@
       </c>
       <c r="G34" t="n">
         <v>176442.47</v>
+      </c>
+      <c r="H34" t="n">
+        <v>174770.82</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>3556.35</v>
       </c>
+      <c r="I2" t="n">
+        <v>3550.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>11392.12</v>
       </c>
+      <c r="I3" t="n">
+        <v>11383.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>1033.13</v>
       </c>
+      <c r="I4" t="n">
+        <v>1042.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>2684.51</v>
       </c>
+      <c r="I5" t="n">
+        <v>2671.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>4046.98</v>
       </c>
+      <c r="I6" t="n">
+        <v>4044.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>14747.22</v>
       </c>
+      <c r="I7" t="n">
+        <v>14720.01</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>841.97</v>
       </c>
+      <c r="I8" t="n">
+        <v>841.78</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>26626.1</v>
       </c>
+      <c r="I9" t="n">
+        <v>26785.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>408.05</v>
       </c>
+      <c r="I10" t="n">
+        <v>406.54</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>901.66</v>
       </c>
+      <c r="I11" t="n">
+        <v>843.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -775,6 +810,9 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -803,6 +841,9 @@
       <c r="H13" t="n">
         <v>39913.41</v>
       </c>
+      <c r="I13" t="n">
+        <v>39842.31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -829,6 +870,9 @@
       <c r="H14" t="n">
         <v>18386.46</v>
       </c>
+      <c r="I14" t="n">
+        <v>18374.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -855,6 +899,9 @@
       <c r="H15" t="n">
         <v>278.24</v>
       </c>
+      <c r="I15" t="n">
+        <v>280.96</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -881,6 +928,9 @@
       <c r="H16" t="n">
         <v>6045.84</v>
       </c>
+      <c r="I16" t="n">
+        <v>5971.76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -909,6 +959,9 @@
       <c r="H17" t="n">
         <v>1802.75</v>
       </c>
+      <c r="I17" t="n">
+        <v>1785.31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -937,6 +990,9 @@
       <c r="H18" t="n">
         <v>46.48</v>
       </c>
+      <c r="I18" t="n">
+        <v>47.78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -965,6 +1021,9 @@
       <c r="H19" t="n">
         <v>268.8</v>
       </c>
+      <c r="I19" t="n">
+        <v>271.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -993,6 +1052,9 @@
       <c r="H20" t="n">
         <v>3647.35</v>
       </c>
+      <c r="I20" t="n">
+        <v>3525.21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1021,6 +1083,9 @@
       <c r="H21" t="n">
         <v>4139.09</v>
       </c>
+      <c r="I21" t="n">
+        <v>4114.37</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1049,6 +1114,9 @@
       <c r="H22" t="n">
         <v>2193.13</v>
       </c>
+      <c r="I22" t="n">
+        <v>2182.67</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1077,6 +1145,9 @@
       <c r="H23" t="n">
         <v>438.54</v>
       </c>
+      <c r="I23" t="n">
+        <v>438.53</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1105,6 +1176,9 @@
       <c r="H24" t="n">
         <v>556.91</v>
       </c>
+      <c r="I24" t="n">
+        <v>546.01</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1132,6 +1206,9 @@
       </c>
       <c r="H25" t="n">
         <v>796.26</v>
+      </c>
+      <c r="I25" t="n">
+        <v>795.5700000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1159,6 +1236,9 @@
       <c r="H26" t="n">
         <v>3278.11</v>
       </c>
+      <c r="I26" t="n">
+        <v>3289.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1187,6 +1267,9 @@
       <c r="H27" t="n">
         <v>2774.69</v>
       </c>
+      <c r="I27" t="n">
+        <v>2802.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1215,6 +1298,9 @@
       <c r="H28" t="n">
         <v>516.28</v>
       </c>
+      <c r="I28" t="n">
+        <v>521.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1243,6 +1329,9 @@
       <c r="H29" t="n">
         <v>3499.31</v>
       </c>
+      <c r="I29" t="n">
+        <v>3499.22</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1271,6 +1360,9 @@
       <c r="H30" t="n">
         <v>2630.9</v>
       </c>
+      <c r="I30" t="n">
+        <v>2619.22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1299,6 +1391,9 @@
       <c r="H31" t="n">
         <v>15019.44</v>
       </c>
+      <c r="I31" t="n">
+        <v>15021.19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1327,6 +1422,9 @@
       <c r="H32" t="n">
         <v>2300.74</v>
       </c>
+      <c r="I32" t="n">
+        <v>2304.86</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1355,6 +1453,9 @@
       <c r="H33" t="n">
         <v>5637.77</v>
       </c>
+      <c r="I33" t="n">
+        <v>5629.76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1382,6 +1483,9 @@
       </c>
       <c r="H34" t="n">
         <v>174770.82</v>
+      </c>
+      <c r="I34" t="n">
+        <v>174522.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>3550.39</v>
       </c>
+      <c r="J2" t="n">
+        <v>3534.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>11383.01</v>
       </c>
+      <c r="J3" t="n">
+        <v>11370.98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>1042.12</v>
       </c>
+      <c r="J4" t="n">
+        <v>1035.74</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>2671.66</v>
       </c>
+      <c r="J5" t="n">
+        <v>2680.74</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>4044.8</v>
       </c>
+      <c r="J6" t="n">
+        <v>4048.64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>14720.01</v>
       </c>
+      <c r="J7" t="n">
+        <v>14792.79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>841.78</v>
       </c>
+      <c r="J8" t="n">
+        <v>838.96</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>26785.97</v>
       </c>
+      <c r="J9" t="n">
+        <v>26615.63</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>406.54</v>
       </c>
+      <c r="J10" t="n">
+        <v>406.58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>843.25</v>
       </c>
+      <c r="J11" t="n">
+        <v>899.6900000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -813,6 +848,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,6 +882,9 @@
       <c r="I13" t="n">
         <v>39842.31</v>
       </c>
+      <c r="J13" t="n">
+        <v>38049.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -873,6 +914,9 @@
       <c r="I14" t="n">
         <v>18374.11</v>
       </c>
+      <c r="J14" t="n">
+        <v>18373.78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -902,6 +946,9 @@
       <c r="I15" t="n">
         <v>280.96</v>
       </c>
+      <c r="J15" t="n">
+        <v>279.81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -931,6 +978,9 @@
       <c r="I16" t="n">
         <v>5971.76</v>
       </c>
+      <c r="J16" t="n">
+        <v>5963.19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -962,6 +1012,9 @@
       <c r="I17" t="n">
         <v>1785.31</v>
       </c>
+      <c r="J17" t="n">
+        <v>1807.87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -993,6 +1046,9 @@
       <c r="I18" t="n">
         <v>47.78</v>
       </c>
+      <c r="J18" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1024,6 +1080,9 @@
       <c r="I19" t="n">
         <v>271.22</v>
       </c>
+      <c r="J19" t="n">
+        <v>269.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1055,6 +1114,9 @@
       <c r="I20" t="n">
         <v>3525.21</v>
       </c>
+      <c r="J20" t="n">
+        <v>3429.22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1086,6 +1148,9 @@
       <c r="I21" t="n">
         <v>4114.37</v>
       </c>
+      <c r="J21" t="n">
+        <v>4103.41</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1117,6 +1182,9 @@
       <c r="I22" t="n">
         <v>2182.67</v>
       </c>
+      <c r="J22" t="n">
+        <v>2176.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1148,6 +1216,9 @@
       <c r="I23" t="n">
         <v>438.53</v>
       </c>
+      <c r="J23" t="n">
+        <v>437.94</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1179,6 +1250,9 @@
       <c r="I24" t="n">
         <v>546.01</v>
       </c>
+      <c r="J24" t="n">
+        <v>557.08</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1209,6 +1283,9 @@
       </c>
       <c r="I25" t="n">
         <v>795.5700000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>788.8</v>
       </c>
     </row>
     <row r="26">
@@ -1239,6 +1316,9 @@
       <c r="I26" t="n">
         <v>3289.5</v>
       </c>
+      <c r="J26" t="n">
+        <v>3268.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1270,6 +1350,9 @@
       <c r="I27" t="n">
         <v>2802.06</v>
       </c>
+      <c r="J27" t="n">
+        <v>2769.66</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1301,6 +1384,9 @@
       <c r="I28" t="n">
         <v>521.2</v>
       </c>
+      <c r="J28" t="n">
+        <v>516.02</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1332,6 +1418,9 @@
       <c r="I29" t="n">
         <v>3499.22</v>
       </c>
+      <c r="J29" t="n">
+        <v>3491.79</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1363,6 +1452,9 @@
       <c r="I30" t="n">
         <v>2619.22</v>
       </c>
+      <c r="J30" t="n">
+        <v>2622.63</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1394,6 +1486,9 @@
       <c r="I31" t="n">
         <v>15021.19</v>
       </c>
+      <c r="J31" t="n">
+        <v>15012.35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1425,6 +1520,9 @@
       <c r="I32" t="n">
         <v>2304.86</v>
       </c>
+      <c r="J32" t="n">
+        <v>2302.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1456,6 +1554,9 @@
       <c r="I33" t="n">
         <v>5629.76</v>
       </c>
+      <c r="J33" t="n">
+        <v>5564.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1486,6 +1587,9 @@
       </c>
       <c r="I34" t="n">
         <v>174522.59</v>
+      </c>
+      <c r="J34" t="n">
+        <v>172490.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>3534.58</v>
       </c>
+      <c r="K2" t="n">
+        <v>3104.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>11370.98</v>
       </c>
+      <c r="K3" t="n">
+        <v>11377.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>1035.74</v>
       </c>
+      <c r="K4" t="n">
+        <v>1041.99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>2680.74</v>
       </c>
+      <c r="K5" t="n">
+        <v>2686.56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>4048.64</v>
       </c>
+      <c r="K6" t="n">
+        <v>4040.94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>14792.79</v>
       </c>
+      <c r="K7" t="n">
+        <v>14766.26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>838.96</v>
       </c>
+      <c r="K8" t="n">
+        <v>838.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>26615.63</v>
       </c>
+      <c r="K9" t="n">
+        <v>26709.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>406.58</v>
       </c>
+      <c r="K10" t="n">
+        <v>48.58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>899.6900000000001</v>
       </c>
+      <c r="K11" t="n">
+        <v>846.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -851,6 +886,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -885,6 +923,9 @@
       <c r="J13" t="n">
         <v>38049.05</v>
       </c>
+      <c r="K13" t="n">
+        <v>37725.22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -917,6 +958,9 @@
       <c r="J14" t="n">
         <v>18373.78</v>
       </c>
+      <c r="K14" t="n">
+        <v>16815.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -949,6 +993,9 @@
       <c r="J15" t="n">
         <v>279.81</v>
       </c>
+      <c r="K15" t="n">
+        <v>279.24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -981,6 +1028,9 @@
       <c r="J16" t="n">
         <v>5963.19</v>
       </c>
+      <c r="K16" t="n">
+        <v>6008.56</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1015,6 +1065,9 @@
       <c r="J17" t="n">
         <v>1807.87</v>
       </c>
+      <c r="K17" t="n">
+        <v>1814.81</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1049,6 +1102,9 @@
       <c r="J18" t="n">
         <v>47.4</v>
       </c>
+      <c r="K18" t="n">
+        <v>47.08</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1083,6 +1139,9 @@
       <c r="J19" t="n">
         <v>269.1</v>
       </c>
+      <c r="K19" t="n">
+        <v>270.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1117,6 +1176,9 @@
       <c r="J20" t="n">
         <v>3429.22</v>
       </c>
+      <c r="K20" t="n">
+        <v>3223.49</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1151,6 +1213,9 @@
       <c r="J21" t="n">
         <v>4103.41</v>
       </c>
+      <c r="K21" t="n">
+        <v>3836.27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1185,6 +1250,9 @@
       <c r="J22" t="n">
         <v>2176.2</v>
       </c>
+      <c r="K22" t="n">
+        <v>2183.08</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1219,6 +1287,9 @@
       <c r="J23" t="n">
         <v>437.94</v>
       </c>
+      <c r="K23" t="n">
+        <v>437.36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1253,6 +1324,9 @@
       <c r="J24" t="n">
         <v>557.08</v>
       </c>
+      <c r="K24" t="n">
+        <v>549.91</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1286,6 +1360,9 @@
       </c>
       <c r="J25" t="n">
         <v>788.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>794.16</v>
       </c>
     </row>
     <row r="26">
@@ -1319,6 +1396,9 @@
       <c r="J26" t="n">
         <v>3268.11</v>
       </c>
+      <c r="K26" t="n">
+        <v>3260.77</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1353,6 +1433,9 @@
       <c r="J27" t="n">
         <v>2769.66</v>
       </c>
+      <c r="K27" t="n">
+        <v>2784.74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1387,6 +1470,9 @@
       <c r="J28" t="n">
         <v>516.02</v>
       </c>
+      <c r="K28" t="n">
+        <v>518.13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1421,6 +1507,9 @@
       <c r="J29" t="n">
         <v>3491.79</v>
       </c>
+      <c r="K29" t="n">
+        <v>3504.51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1455,6 +1544,9 @@
       <c r="J30" t="n">
         <v>2622.63</v>
       </c>
+      <c r="K30" t="n">
+        <v>2628.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1489,6 +1581,9 @@
       <c r="J31" t="n">
         <v>15012.35</v>
       </c>
+      <c r="K31" t="n">
+        <v>15009.82</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1523,6 +1618,9 @@
       <c r="J32" t="n">
         <v>2302.41</v>
       </c>
+      <c r="K32" t="n">
+        <v>2307.92</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1557,6 +1655,9 @@
       <c r="J33" t="n">
         <v>5564.2</v>
       </c>
+      <c r="K33" t="n">
+        <v>5466.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1590,6 +1691,9 @@
       </c>
       <c r="J34" t="n">
         <v>172490.15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>169461.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>3104.85</v>
       </c>
+      <c r="L2" t="n">
+        <v>3088.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>11377.58</v>
       </c>
+      <c r="L3" t="n">
+        <v>11362.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>1041.99</v>
       </c>
+      <c r="L4" t="n">
+        <v>1042.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>2686.56</v>
       </c>
+      <c r="L5" t="n">
+        <v>2681.43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>4040.94</v>
       </c>
+      <c r="L6" t="n">
+        <v>4044.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>14766.26</v>
       </c>
+      <c r="L7" t="n">
+        <v>14793.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>838.53</v>
       </c>
+      <c r="L8" t="n">
+        <v>839</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>26709.59</v>
       </c>
+      <c r="L9" t="n">
+        <v>26741.92</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>48.58</v>
       </c>
+      <c r="L10" t="n">
+        <v>48.45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>846.75</v>
       </c>
+      <c r="L11" t="n">
+        <v>851.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -889,6 +924,9 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -926,6 +964,9 @@
       <c r="K13" t="n">
         <v>37725.22</v>
       </c>
+      <c r="L13" t="n">
+        <v>31670.82</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -961,6 +1002,9 @@
       <c r="K14" t="n">
         <v>16815.8</v>
       </c>
+      <c r="L14" t="n">
+        <v>16349.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -996,6 +1040,9 @@
       <c r="K15" t="n">
         <v>279.24</v>
       </c>
+      <c r="L15" t="n">
+        <v>266.85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1031,6 +1078,9 @@
       <c r="K16" t="n">
         <v>6008.56</v>
       </c>
+      <c r="L16" t="n">
+        <v>6011.87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1068,6 +1118,9 @@
       <c r="K17" t="n">
         <v>1814.81</v>
       </c>
+      <c r="L17" t="n">
+        <v>1785.91</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1105,6 +1158,9 @@
       <c r="K18" t="n">
         <v>47.08</v>
       </c>
+      <c r="L18" t="n">
+        <v>53.41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1142,6 +1198,9 @@
       <c r="K19" t="n">
         <v>270.5</v>
       </c>
+      <c r="L19" t="n">
+        <v>269.64</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1179,6 +1238,9 @@
       <c r="K20" t="n">
         <v>3223.49</v>
       </c>
+      <c r="L20" t="n">
+        <v>2828.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1216,6 +1278,9 @@
       <c r="K21" t="n">
         <v>3836.27</v>
       </c>
+      <c r="L21" t="n">
+        <v>3605.38</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1253,6 +1318,9 @@
       <c r="K22" t="n">
         <v>2183.08</v>
       </c>
+      <c r="L22" t="n">
+        <v>2165.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1290,6 +1358,9 @@
       <c r="K23" t="n">
         <v>437.36</v>
       </c>
+      <c r="L23" t="n">
+        <v>437.32</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1327,6 +1398,9 @@
       <c r="K24" t="n">
         <v>549.91</v>
       </c>
+      <c r="L24" t="n">
+        <v>546.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1363,6 +1437,9 @@
       </c>
       <c r="K25" t="n">
         <v>794.16</v>
+      </c>
+      <c r="L25" t="n">
+        <v>794.0700000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1399,6 +1476,9 @@
       <c r="K26" t="n">
         <v>3260.77</v>
       </c>
+      <c r="L26" t="n">
+        <v>3279.03</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1436,6 +1516,9 @@
       <c r="K27" t="n">
         <v>2784.74</v>
       </c>
+      <c r="L27" t="n">
+        <v>2778.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1473,6 +1556,9 @@
       <c r="K28" t="n">
         <v>518.13</v>
       </c>
+      <c r="L28" t="n">
+        <v>521.22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1510,6 +1596,9 @@
       <c r="K29" t="n">
         <v>3504.51</v>
       </c>
+      <c r="L29" t="n">
+        <v>3509.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1547,6 +1636,9 @@
       <c r="K30" t="n">
         <v>2628.43</v>
       </c>
+      <c r="L30" t="n">
+        <v>2624</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1584,6 +1676,9 @@
       <c r="K31" t="n">
         <v>15009.82</v>
       </c>
+      <c r="L31" t="n">
+        <v>15022.93</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1621,6 +1716,9 @@
       <c r="K32" t="n">
         <v>2307.92</v>
       </c>
+      <c r="L32" t="n">
+        <v>2300.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1658,6 +1756,9 @@
       <c r="K33" t="n">
         <v>5466.5</v>
       </c>
+      <c r="L33" t="n">
+        <v>5235.91</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1694,6 +1795,9 @@
       </c>
       <c r="K34" t="n">
         <v>169461.43</v>
+      </c>
+      <c r="L34" t="n">
+        <v>162313.2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/MIRG.xlsx
+++ b/backend/src/excel_handler/files/MIRG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>3088.31</v>
       </c>
+      <c r="M2" t="n">
+        <v>3075.68</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>11362.41</v>
       </c>
+      <c r="M3" t="n">
+        <v>11402.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>1042.33</v>
       </c>
+      <c r="M4" t="n">
+        <v>1041</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>2681.43</v>
       </c>
+      <c r="M5" t="n">
+        <v>2677.23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>4044.31</v>
       </c>
+      <c r="M6" t="n">
+        <v>4055.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>14793.08</v>
       </c>
+      <c r="M7" t="n">
+        <v>14741.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>839</v>
       </c>
+      <c r="M8" t="n">
+        <v>840.74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>26741.92</v>
       </c>
+      <c r="M9" t="n">
+        <v>26676.55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>48.45</v>
       </c>
+      <c r="M10" t="n">
+        <v>48.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>851.66</v>
       </c>
+      <c r="M11" t="n">
+        <v>860.26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -927,6 +962,9 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -967,6 +1005,9 @@
       <c r="L13" t="n">
         <v>31670.82</v>
       </c>
+      <c r="M13" t="n">
+        <v>29685.82</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1005,6 +1046,9 @@
       <c r="L14" t="n">
         <v>16349.29</v>
       </c>
+      <c r="M14" t="n">
+        <v>16371.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1043,6 +1087,9 @@
       <c r="L15" t="n">
         <v>266.85</v>
       </c>
+      <c r="M15" t="n">
+        <v>303.55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1081,6 +1128,9 @@
       <c r="L16" t="n">
         <v>6011.87</v>
       </c>
+      <c r="M16" t="n">
+        <v>5740</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1121,6 +1171,9 @@
       <c r="L17" t="n">
         <v>1785.91</v>
       </c>
+      <c r="M17" t="n">
+        <v>1820.08</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1161,6 +1214,9 @@
       <c r="L18" t="n">
         <v>53.41</v>
       </c>
+      <c r="M18" t="n">
+        <v>50.14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1201,6 +1257,9 @@
       <c r="L19" t="n">
         <v>269.64</v>
       </c>
+      <c r="M19" t="n">
+        <v>270.62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1241,6 +1300,9 @@
       <c r="L20" t="n">
         <v>2828.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>2840.67</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1281,6 +1343,9 @@
       <c r="L21" t="n">
         <v>3605.38</v>
       </c>
+      <c r="M21" t="n">
+        <v>3602.48</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1321,6 +1386,9 @@
       <c r="L22" t="n">
         <v>2165.1</v>
       </c>
+      <c r="M22" t="n">
+        <v>1906.45</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1361,6 +1429,9 @@
       <c r="L23" t="n">
         <v>437.32</v>
       </c>
+      <c r="M23" t="n">
+        <v>437.4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1401,6 +1472,9 @@
       <c r="L24" t="n">
         <v>546.35</v>
       </c>
+      <c r="M24" t="n">
+        <v>555.28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1440,6 +1514,9 @@
       </c>
       <c r="L25" t="n">
         <v>794.0700000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>788.34</v>
       </c>
     </row>
     <row r="26">
@@ -1479,6 +1556,9 @@
       <c r="L26" t="n">
         <v>3279.03</v>
       </c>
+      <c r="M26" t="n">
+        <v>3276.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1519,6 +1599,9 @@
       <c r="L27" t="n">
         <v>2778.9</v>
       </c>
+      <c r="M27" t="n">
+        <v>2766.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1559,6 +1642,9 @@
       <c r="L28" t="n">
         <v>521.22</v>
       </c>
+      <c r="M28" t="n">
+        <v>523.29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1599,6 +1685,9 @@
       <c r="L29" t="n">
         <v>3509.3</v>
       </c>
+      <c r="M29" t="n">
+        <v>3509.42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1639,6 +1728,9 @@
       <c r="L30" t="n">
         <v>2624</v>
       </c>
+      <c r="M30" t="n">
+        <v>2553.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1679,6 +1771,9 @@
       <c r="L31" t="n">
         <v>15022.93</v>
       </c>
+      <c r="M31" t="n">
+        <v>14990.83</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1719,6 +1814,9 @@
       <c r="L32" t="n">
         <v>2300.31</v>
       </c>
+      <c r="M32" t="n">
+        <v>2306.17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1759,6 +1857,9 @@
       <c r="L33" t="n">
         <v>5235.91</v>
       </c>
+      <c r="M33" t="n">
+        <v>5152.16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1798,6 +1899,9 @@
       </c>
       <c r="L34" t="n">
         <v>162313.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>159717.02</v>
       </c>
     </row>
   </sheetData>
